--- a/gantt-diagramm.xlsx
+++ b/gantt-diagramm.xlsx
@@ -1334,7 +1334,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4198,8 +4198,8 @@
         <v>43948</v>
       </c>
       <c r="E12" s="59" t="n">
-        <f aca="false">1/6</f>
-        <v>0.166666666666667</v>
+        <f aca="false">1/2</f>
+        <v>0.5</v>
       </c>
       <c r="F12" s="60" t="n">
         <v>43948</v>
@@ -4404,8 +4404,8 @@
         <v>43948</v>
       </c>
       <c r="E13" s="72" t="n">
-        <f aca="false">1/6</f>
-        <v>0.166666666666667</v>
+        <f aca="false">1/4</f>
+        <v>0.25</v>
       </c>
       <c r="F13" s="71" t="n">
         <v>43948</v>
@@ -4610,8 +4610,8 @@
         <v>43948</v>
       </c>
       <c r="E14" s="72" t="n">
-        <f aca="false">1/6</f>
-        <v>0.166666666666667</v>
+        <f aca="false">1/4</f>
+        <v>0.25</v>
       </c>
       <c r="F14" s="71" t="n">
         <v>43948</v>
@@ -4816,8 +4816,8 @@
         <v>43948</v>
       </c>
       <c r="E15" s="59" t="n">
-        <f aca="false">1/6</f>
-        <v>0.166666666666667</v>
+        <f aca="false">1/2</f>
+        <v>0.5</v>
       </c>
       <c r="F15" s="58" t="n">
         <v>43948</v>
@@ -5022,8 +5022,8 @@
         <v>43948</v>
       </c>
       <c r="E16" s="72" t="n">
-        <f aca="false">1/6</f>
-        <v>0.166666666666667</v>
+        <f aca="false">1/4</f>
+        <v>0.25</v>
       </c>
       <c r="F16" s="71" t="n">
         <v>43948</v>
@@ -5228,8 +5228,8 @@
         <v>43948</v>
       </c>
       <c r="E17" s="72" t="n">
-        <f aca="false">1/6</f>
-        <v>0.166666666666667</v>
+        <f aca="false">1/4</f>
+        <v>0.25</v>
       </c>
       <c r="F17" s="71" t="n">
         <v>43948</v>
@@ -8311,10 +8311,7 @@
       </c>
       <c r="D32" s="58"/>
       <c r="E32" s="59"/>
-      <c r="F32" s="60" t="str">
-        <f aca="false">IF(E32&gt;0,WORKDAY(D32,E32-1,Holidays), "")</f>
-        <v/>
-      </c>
+      <c r="F32" s="60"/>
       <c r="G32" s="61"/>
       <c r="H32" s="79"/>
       <c r="I32" s="63"/>
@@ -9593,7 +9590,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{993BF9C3-D6A0-4DE0-B168-A7451E1756E7}</x14:id>
+          <x14:id>{E028D534-8B41-4D57-8849-B26BCBE9496E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9607,7 +9604,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{665AB09C-CF9C-4E5D-A42B-F0353932AA72}</x14:id>
+          <x14:id>{ACAEC83F-4CE0-4C86-A6A4-3B6EFE6A9F3D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -13603,7 +13600,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AA3D39BD-C2A6-44F7-BEB5-C2A5DF44ED86}</x14:id>
+          <x14:id>{F046DF17-403E-4895-9475-6CFB909A1057}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -17599,7 +17596,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CC5E2D42-2D15-4E41-89C2-FBE35CCB8A26}</x14:id>
+          <x14:id>{24C2C69A-8792-4E9D-B19F-988914395451}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21617,7 +21614,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{87FA8777-9E57-4519-B441-CB4EA07541B2}</x14:id>
+          <x14:id>{38FA3788-3536-4141-A9E0-674751795B64}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21631,7 +21628,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{81407CB9-D793-42D0-ACA0-6C7A137F14E8}</x14:id>
+          <x14:id>{CA39919D-D0FC-4ADD-8C90-A640C0B32E3F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -25638,7 +25635,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{993BF9C3-D6A0-4DE0-B168-A7451E1756E7}">
+          <x14:cfRule type="dataBar" id="{E028D534-8B41-4D57-8849-B26BCBE9496E}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="true">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -25653,7 +25650,7 @@
           <xm:sqref>G33:G34 F3 G10:G20 G23:G26 G28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{665AB09C-CF9C-4E5D-A42B-F0353932AA72}">
+          <x14:cfRule type="dataBar" id="{ACAEC83F-4CE0-4C86-A6A4-3B6EFE6A9F3D}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="true">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -25668,7 +25665,7 @@
           <xm:sqref>G22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AA3D39BD-C2A6-44F7-BEB5-C2A5DF44ED86}">
+          <x14:cfRule type="dataBar" id="{F046DF17-403E-4895-9475-6CFB909A1057}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="true">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -25683,7 +25680,7 @@
           <xm:sqref>G21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CC5E2D42-2D15-4E41-89C2-FBE35CCB8A26}">
+          <x14:cfRule type="dataBar" id="{24C2C69A-8792-4E9D-B19F-988914395451}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="true">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -25698,7 +25695,7 @@
           <xm:sqref>G27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{87FA8777-9E57-4519-B441-CB4EA07541B2}">
+          <x14:cfRule type="dataBar" id="{38FA3788-3536-4141-A9E0-674751795B64}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="true">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -25713,7 +25710,7 @@
           <xm:sqref>G29:G31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{81407CB9-D793-42D0-ACA0-6C7A137F14E8}">
+          <x14:cfRule type="dataBar" id="{CA39919D-D0FC-4ADD-8C90-A640C0B32E3F}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="true">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
